--- a/Data/EC/NIT-9002948531.xlsx
+++ b/Data/EC/NIT-9002948531.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE336F70-2B3E-4550-BA54-D3624D2EE8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{655535DB-1055-4C10-9B5E-061315185D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2B8A1F35-6630-43D4-AA96-B4F249EDD91D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{931521B9-7920-4023-8E43-ECFF1B9D765B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,187 +65,187 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73065804</t>
+  </si>
+  <si>
+    <t>RODOLFO RODRIGUEZ ROMERO</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
     <t>73239769</t>
   </si>
   <si>
     <t>HERNANDO JOSE FUENTES VILLALOBOS</t>
   </si>
   <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
     <t>1710</t>
   </si>
   <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
+    <t>45535506</t>
+  </si>
+  <si>
+    <t>KEYLA PATRICIA ALTAMAR GIRADO</t>
   </si>
   <si>
     <t>1099964006</t>
   </si>
   <si>
     <t>GUSTAVO ANDRES ARRIETA ALVAREZ</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>73065804</t>
-  </si>
-  <si>
-    <t>RODOLFO RODRIGUEZ ROMERO</t>
-  </si>
-  <si>
-    <t>45535506</t>
-  </si>
-  <si>
-    <t>KEYLA PATRICIA ALTAMAR GIRADO</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -659,7 +659,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8194DEEE-30EE-0F0B-44C9-D8B50DF6AE37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94096D39-76E0-36CE-8D75-A741AE051327}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1010,7 +1010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D9AF15-3F2C-451C-9618-5254DCDAFDC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA839A02-887E-4B3B-A774-67D14B7BD7C8}">
   <dimension ref="B2:J81"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1188,10 +1188,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29509</v>
+        <v>36341</v>
       </c>
       <c r="G16" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1211,10 +1211,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>29509</v>
+        <v>36341</v>
       </c>
       <c r="G17" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1234,10 +1234,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>29509</v>
+        <v>36341</v>
       </c>
       <c r="G18" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1257,10 +1257,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>29509</v>
+        <v>36341</v>
       </c>
       <c r="G19" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1280,10 +1280,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>29509</v>
+        <v>36341</v>
       </c>
       <c r="G20" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1294,16 +1294,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
-        <v>29509</v>
+        <v>21874</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1317,16 +1317,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1340,16 +1340,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1363,16 +1363,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F24" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1386,16 +1386,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F25" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1409,16 +1409,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1432,13 +1432,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F27" s="18">
         <v>31249</v>
@@ -1455,13 +1455,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F28" s="18">
         <v>31249</v>
@@ -1478,13 +1478,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F29" s="18">
         <v>31249</v>
@@ -1501,13 +1501,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F30" s="18">
         <v>31249</v>
@@ -1524,13 +1524,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F31" s="18">
         <v>31249</v>
@@ -1547,13 +1547,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F32" s="18">
         <v>31249</v>
@@ -1570,13 +1570,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F33" s="18">
         <v>31249</v>
@@ -1593,13 +1593,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F34" s="18">
         <v>31249</v>
@@ -1616,13 +1616,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F35" s="18">
         <v>31249</v>
@@ -1639,13 +1639,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F36" s="18">
         <v>31249</v>
@@ -1662,13 +1662,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F37" s="18">
         <v>31249</v>
@@ -1685,13 +1685,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F38" s="18">
         <v>31249</v>
@@ -1708,13 +1708,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F39" s="18">
         <v>31249</v>
@@ -1731,13 +1731,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F40" s="18">
         <v>31249</v>
@@ -1754,13 +1754,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F41" s="18">
         <v>31249</v>
@@ -1777,13 +1777,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F42" s="18">
         <v>31249</v>
@@ -1800,13 +1800,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F43" s="18">
         <v>31249</v>
@@ -1823,13 +1823,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F44" s="18">
         <v>31249</v>
@@ -1846,13 +1846,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F45" s="18">
         <v>31249</v>
@@ -1869,13 +1869,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F46" s="18">
         <v>31249</v>
@@ -1892,13 +1892,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F47" s="18">
         <v>31249</v>
@@ -1915,13 +1915,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F48" s="18">
         <v>31249</v>
@@ -1938,13 +1938,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F49" s="18">
         <v>31249</v>
@@ -1961,13 +1961,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F50" s="18">
         <v>31249</v>
@@ -1984,13 +1984,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F51" s="18">
         <v>31249</v>
@@ -2007,13 +2007,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F52" s="18">
         <v>31249</v>
@@ -2030,13 +2030,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F53" s="18">
         <v>31249</v>
@@ -2053,13 +2053,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F54" s="18">
         <v>31249</v>
@@ -2076,13 +2076,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F55" s="18">
         <v>31249</v>
@@ -2099,13 +2099,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F56" s="18">
         <v>31249</v>
@@ -2122,13 +2122,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F57" s="18">
         <v>31249</v>
@@ -2145,13 +2145,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F58" s="18">
         <v>31249</v>
@@ -2168,13 +2168,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F59" s="18">
         <v>31249</v>
@@ -2191,13 +2191,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F60" s="18">
         <v>31249</v>
@@ -2214,19 +2214,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F61" s="18">
-        <v>36341</v>
+        <v>31249</v>
       </c>
       <c r="G61" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2237,19 +2237,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F62" s="18">
-        <v>36341</v>
+        <v>31249</v>
       </c>
       <c r="G62" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2260,16 +2260,16 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F63" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G63" s="18">
         <v>781242</v>
@@ -2283,19 +2283,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F64" s="18">
-        <v>36341</v>
+        <v>29509</v>
       </c>
       <c r="G64" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2306,19 +2306,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F65" s="18">
-        <v>36341</v>
+        <v>29509</v>
       </c>
       <c r="G65" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2329,16 +2329,16 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F66" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G66" s="18">
         <v>781242</v>
@@ -2352,16 +2352,16 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F67" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G67" s="18">
         <v>781242</v>
@@ -2375,16 +2375,16 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F68" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G68" s="18">
         <v>781242</v>
@@ -2398,19 +2398,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F69" s="18">
-        <v>36341</v>
+        <v>29509</v>
       </c>
       <c r="G69" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2421,19 +2421,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F70" s="18">
-        <v>36341</v>
+        <v>29509</v>
       </c>
       <c r="G70" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2444,16 +2444,16 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F71" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G71" s="18">
         <v>781242</v>
@@ -2467,16 +2467,16 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F72" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G72" s="18">
         <v>781242</v>
@@ -2490,19 +2490,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F73" s="18">
-        <v>36341</v>
+        <v>29509</v>
       </c>
       <c r="G73" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2513,19 +2513,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="F74" s="18">
-        <v>31249</v>
+        <v>36341</v>
       </c>
       <c r="G74" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2536,19 +2536,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="F75" s="24">
-        <v>21874</v>
+        <v>36341</v>
       </c>
       <c r="G75" s="24">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H75" s="25"/>
       <c r="I75" s="25"/>

--- a/Data/EC/NIT-9002948531.xlsx
+++ b/Data/EC/NIT-9002948531.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{655535DB-1055-4C10-9B5E-061315185D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56E9A151-5D98-48FF-83C1-DD8527963E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{931521B9-7920-4023-8E43-ECFF1B9D765B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D696F7A4-C785-4FDD-B033-E2B746A3C873}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,187 +65,187 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73239769</t>
+  </si>
+  <si>
+    <t>HERNANDO JOSE FUENTES VILLALOBOS</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
     <t>73065804</t>
   </si>
   <si>
     <t>RODOLFO RODRIGUEZ ROMERO</t>
   </si>
   <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>45535506</t>
+  </si>
+  <si>
+    <t>KEYLA PATRICIA ALTAMAR GIRADO</t>
+  </si>
+  <si>
+    <t>1099964006</t>
+  </si>
+  <si>
+    <t>GUSTAVO ANDRES ARRIETA ALVAREZ</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
     <t>2112</t>
   </si>
   <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>73239769</t>
-  </si>
-  <si>
-    <t>HERNANDO JOSE FUENTES VILLALOBOS</t>
+    <t>2201</t>
   </si>
   <si>
     <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>45535506</t>
-  </si>
-  <si>
-    <t>KEYLA PATRICIA ALTAMAR GIRADO</t>
-  </si>
-  <si>
-    <t>1099964006</t>
-  </si>
-  <si>
-    <t>GUSTAVO ANDRES ARRIETA ALVAREZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -344,7 +344,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -357,9 +359,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -559,23 +559,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -603,10 +603,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -659,7 +659,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94096D39-76E0-36CE-8D75-A741AE051327}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33A3BCFF-E557-5E30-2AF1-F7219D77CF48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1010,7 +1010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA839A02-887E-4B3B-A774-67D14B7BD7C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7561F1E6-FC23-47B0-9BC8-365A28E53664}">
   <dimension ref="B2:J81"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1188,10 +1188,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>36341</v>
+        <v>29509</v>
       </c>
       <c r="G16" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1211,10 +1211,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>36341</v>
+        <v>29509</v>
       </c>
       <c r="G17" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1234,10 +1234,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>36341</v>
+        <v>29509</v>
       </c>
       <c r="G18" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1257,10 +1257,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>36341</v>
+        <v>29509</v>
       </c>
       <c r="G19" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1280,10 +1280,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>36341</v>
+        <v>29509</v>
       </c>
       <c r="G20" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1294,16 +1294,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F21" s="18">
-        <v>21874</v>
+        <v>29509</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1317,16 +1317,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1340,16 +1340,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1363,16 +1363,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1386,16 +1386,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1409,16 +1409,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1432,13 +1432,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>31249</v>
@@ -1455,13 +1455,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>31249</v>
@@ -1478,13 +1478,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>31249</v>
@@ -1501,13 +1501,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>31249</v>
@@ -1524,13 +1524,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>31249</v>
@@ -1547,13 +1547,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>31249</v>
@@ -1570,13 +1570,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>31249</v>
@@ -1593,13 +1593,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>31249</v>
@@ -1616,13 +1616,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
         <v>31249</v>
@@ -1639,13 +1639,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>31249</v>
@@ -1662,13 +1662,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
         <v>31249</v>
@@ -1685,13 +1685,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
         <v>31249</v>
@@ -1708,13 +1708,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
         <v>31249</v>
@@ -1731,13 +1731,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
         <v>31249</v>
@@ -1754,13 +1754,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
         <v>31249</v>
@@ -1777,13 +1777,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
         <v>31249</v>
@@ -1800,13 +1800,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
         <v>31249</v>
@@ -1823,13 +1823,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
         <v>31249</v>
@@ -1846,13 +1846,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
         <v>31249</v>
@@ -1869,13 +1869,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
         <v>31249</v>
@@ -1892,13 +1892,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
         <v>31249</v>
@@ -1915,13 +1915,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
         <v>31249</v>
@@ -1938,13 +1938,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
         <v>31249</v>
@@ -1961,13 +1961,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
         <v>31249</v>
@@ -1984,13 +1984,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
         <v>31249</v>
@@ -2007,13 +2007,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
         <v>31249</v>
@@ -2030,13 +2030,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
         <v>31249</v>
@@ -2053,13 +2053,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F54" s="18">
         <v>31249</v>
@@ -2076,13 +2076,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F55" s="18">
         <v>31249</v>
@@ -2099,13 +2099,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F56" s="18">
         <v>31249</v>
@@ -2122,13 +2122,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F57" s="18">
         <v>31249</v>
@@ -2145,13 +2145,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F58" s="18">
         <v>31249</v>
@@ -2168,13 +2168,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F59" s="18">
         <v>31249</v>
@@ -2191,13 +2191,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F60" s="18">
         <v>31249</v>
@@ -2214,19 +2214,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F61" s="18">
-        <v>31249</v>
+        <v>36341</v>
       </c>
       <c r="G61" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2237,13 +2237,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F62" s="18">
         <v>31249</v>
@@ -2260,19 +2260,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F63" s="18">
-        <v>29509</v>
+        <v>36341</v>
       </c>
       <c r="G63" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2283,19 +2283,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F64" s="18">
-        <v>29509</v>
+        <v>36341</v>
       </c>
       <c r="G64" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2306,19 +2306,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F65" s="18">
-        <v>29509</v>
+        <v>36341</v>
       </c>
       <c r="G65" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2329,16 +2329,16 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F66" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G66" s="18">
         <v>781242</v>
@@ -2352,16 +2352,16 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F67" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G67" s="18">
         <v>781242</v>
@@ -2375,19 +2375,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F68" s="18">
-        <v>29509</v>
+        <v>36341</v>
       </c>
       <c r="G68" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2398,16 +2398,16 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F69" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G69" s="18">
         <v>781242</v>
@@ -2421,19 +2421,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F70" s="18">
-        <v>29509</v>
+        <v>36341</v>
       </c>
       <c r="G70" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2444,16 +2444,16 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F71" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G71" s="18">
         <v>781242</v>
@@ -2467,19 +2467,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F72" s="18">
-        <v>29509</v>
+        <v>36341</v>
       </c>
       <c r="G72" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2490,16 +2490,16 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F73" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G73" s="18">
         <v>781242</v>
@@ -2513,19 +2513,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="F74" s="18">
-        <v>36341</v>
+        <v>31249</v>
       </c>
       <c r="G74" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2536,19 +2536,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="D75" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E75" s="22" t="s">
-        <v>15</v>
-      </c>
       <c r="F75" s="24">
-        <v>36341</v>
+        <v>21874</v>
       </c>
       <c r="G75" s="24">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H75" s="25"/>
       <c r="I75" s="25"/>
